--- a/output_additional_column/1989.xlsx
+++ b/output_additional_column/1989.xlsx
@@ -490,7 +490,7 @@
         <v>38360</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>10979</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>66973</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +584,7 @@
         <v>33996</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="7">
@@ -608,7 +608,7 @@
         <v>30279</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         <v>75433</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         <v>10404</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>42387</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +704,7 @@
         <v>28691</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="12">
@@ -728,7 +728,7 @@
         <v>30279</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="13">
@@ -752,7 +752,7 @@
         <v>81217</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="14">
@@ -776,7 +776,7 @@
         <v>21474</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="15">
@@ -800,7 +800,7 @@
         <v>77845</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="16">
@@ -824,7 +824,7 @@
         <v>17487</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="17">
@@ -848,7 +848,7 @@
         <v>85710</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="18">
@@ -872,7 +872,7 @@
         <v>38683</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="19">
@@ -896,7 +896,7 @@
         <v>46107</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="20">
@@ -920,7 +920,7 @@
         <v>25443</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="21">
@@ -944,7 +944,7 @@
         <v>64449</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="22">
@@ -968,7 +968,7 @@
         <v>10979</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="23">
@@ -992,7 +992,7 @@
         <v>37155</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="24">
@@ -1016,7 +1016,7 @@
         <v>28691</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="25">
@@ -1040,7 +1040,7 @@
         <v>59060</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="26">
@@ -1064,7 +1064,7 @@
         <v>9255</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="27">
@@ -1088,7 +1088,7 @@
         <v>31928</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="28">
@@ -1112,7 +1112,7 @@
         <v>33996</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="29">
@@ -1136,7 +1136,7 @@
         <v>81217</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="30">
@@ -1160,7 +1160,7 @@
         <v>18358</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
     <row r="31">
@@ -1184,7 +1184,7 @@
         <v>88420</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.7671150472</v>
+        <v>44703.79033462454</v>
       </c>
     </row>
   </sheetData>
